--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Documents\GitHub\pyRiKi1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\pyRiKi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFFB1AD-394B-4A0E-8735-E13325CD2921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9646B847-8ADD-47E0-AE3A-38A1D4510639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="8" r:id="rId1"/>
@@ -11498,6 +11498,985 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4988598" cy="4530150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953C23CB-8ED9-4469-893E-F938EF9F3D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190501" y="298259"/>
+          <a:ext cx="4988598" cy="4530150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864652DC-74C2-48D8-BD32-B72B6A79DB49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="319424" y="545234"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B242FE7D-4884-4008-BDC8-788616B4B742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="239588" y="158754"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B1AC1E-C291-4F4B-99F9-0CCB197173B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent6">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10754592" y="298259"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5FCE47-CA6A-4B6E-B559-A59C9B060957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10883515" y="545234"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52ED993B-640D-45BF-BCF6-BA7346745FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10803679" y="158754"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF3924D-6649-43C2-9990-D674A3DC0C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16036637" y="298259"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2913F84B-398C-4A34-B291-57493E2C000C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16165560" y="545234"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2872AD62-CCF1-4C5C-AD39-76814CAA70EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16085724" y="158754"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C3A764-E726-410D-8ACC-820758361237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5472546" y="298259"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D390D3-4C45-4B9A-813B-8DD68590A3F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5601469" y="545234"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67534A95-901C-40EA-90E9-C59545773FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5521633" y="158754"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>248334</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149224</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4313425" cy="2587888"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4FB019-CC8D-4A2C-AEFD-98A27A9C0BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11057766" y="6455929"/>
+          <a:ext cx="4313425" cy="2587888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="13800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Play</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="13800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>274889</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162213</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4315156" cy="2587888"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1549607D-D971-49CA-AF22-98B03317001C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16366366" y="6468918"/>
+          <a:ext cx="4315156" cy="2587888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="13800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="13800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>73272</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>141433</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4705712" cy="2587888"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DFEF9F-51C9-4A81-9887-0BFD47FF02BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600658" y="6448138"/>
+          <a:ext cx="4705712" cy="2587888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="13800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>BGM</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="13800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14814,7 +15793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905ECEFD-C942-4F1B-8230-C564CB5385AE}">
   <dimension ref="B2:AI43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="66" workbookViewId="0">
       <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
@@ -16072,8 +17051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD8D7F-E8F3-49D1-B811-542A9EEAF68E}">
   <dimension ref="B2:AI43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="66" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H19" zoomScale="66" workbookViewId="0">
+      <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16688,7 +17667,37 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="24" spans="2:35" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:35" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -17301,7 +18310,7 @@
   <dimension ref="B2:AI43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="66" workbookViewId="0">
-      <selection activeCell="Q42" sqref="K25:Q42"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\pyRiKi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9646B847-8ADD-47E0-AE3A-38A1D4510639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1A360C-7AB7-4C1A-8F11-FB691C82DF8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
@@ -12294,11 +12294,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>248334</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:colOff>141253</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134796</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4313425" cy="2587888"/>
+    <xdr:ext cx="4527586" cy="2171941"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="正方形/長方形 25">
@@ -12312,8 +12312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11057766" y="6455929"/>
-          <a:ext cx="4313425" cy="2587888"/>
+          <a:off x="10950685" y="6686841"/>
+          <a:ext cx="4527586" cy="2171941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12328,7 +12328,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="13800" b="0" cap="none" spc="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="11500" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -12337,9 +12337,9 @@
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Play</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="13800" b="0" cap="none" spc="0">
+            <a:t>PLAY</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="11500" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -12356,11 +12356,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>274889</xdr:colOff>
+      <xdr:colOff>127990</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>162213</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4315156" cy="2587888"/>
+    <xdr:ext cx="4608954" cy="2587888"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="正方形/長方形 26">
@@ -12374,8 +12374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16366366" y="6468918"/>
-          <a:ext cx="4315156" cy="2587888"/>
+          <a:off x="16219467" y="6468918"/>
+          <a:ext cx="4608954" cy="2587888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12399,7 +12399,7 @@
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Web</a:t>
+            <a:t>WEB</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="13800" b="0" cap="none" spc="0">
             <a:ln w="0"/>
@@ -12462,6 +12462,268 @@
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>BGM</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="13800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3781C7B4-930F-45B3-A680-89D3D13F201C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16036637" y="5291668"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>213302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16C9EB0-8C1A-4AC9-8B9B-EAF3D163F5F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16165560" y="5538643"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E497DA14-C183-4123-BF26-763A7DC5465F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16085724" y="5152163"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>324582</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>162213</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4215769" cy="2587888"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B923EE-63D2-49FA-AF1C-B833FE9EF247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16416059" y="11375736"/>
+          <a:ext cx="4215769" cy="2587888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="13800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RPA</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="13800" b="0" cap="none" spc="0">
             <a:ln w="0"/>
@@ -17049,10 +17311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD8D7F-E8F3-49D1-B811-542A9EEAF68E}">
-  <dimension ref="B2:AI43"/>
+  <dimension ref="B2:AI62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="H19" zoomScale="66" workbookViewId="0">
-      <selection activeCell="U49" sqref="U49"/>
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18296,6 +18558,177 @@
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+    </row>
+    <row r="49" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+    </row>
+    <row r="50" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+    </row>
+    <row r="51" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+    </row>
+    <row r="52" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+    </row>
+    <row r="53" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+    </row>
+    <row r="54" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+    </row>
+    <row r="55" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+    </row>
+    <row r="56" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+    </row>
+    <row r="57" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+    </row>
+    <row r="58" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+    </row>
+    <row r="59" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+    </row>
+    <row r="60" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+    </row>
+    <row r="61" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+    </row>
+    <row r="62" spans="29:35" x14ac:dyDescent="0.4">
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -20780,19 +21213,63 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T18:U18"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="C10:D10"/>
@@ -20807,63 +21284,19 @@
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21562,6 +21995,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:C6"/>
@@ -21574,25 +22026,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
